--- a/pc gamer orçamento.xlsx
+++ b/pc gamer orçamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\Formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39045724-1A7B-45D1-9A9D-464676BD5EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B9EEDC-08E4-470D-A5D8-190963A55187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{BAD12BD5-9522-413C-9D24-9D73B6BDDBF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BAD12BD5-9522-413C-9D24-9D73B6BDDBF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Orçamento PC Gamer</t>
   </si>
@@ -68,30 +68,6 @@
   </si>
   <si>
     <t>Marca 1</t>
-  </si>
-  <si>
-    <t>Marca 2</t>
-  </si>
-  <si>
-    <t>Raisem 3200g</t>
-  </si>
-  <si>
-    <t>Biostar H310MHP</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>32g</t>
-  </si>
-  <si>
-    <t>Marca 3</t>
-  </si>
-  <si>
-    <t>Gigabyte B450M</t>
-  </si>
-  <si>
-    <t>raizem</t>
   </si>
   <si>
     <t>Valor</t>
@@ -104,10 +80,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,12 +136,278 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00EE28"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00EE28"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00EE28"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00EE28"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,20 +415,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -186,6 +507,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00EE28"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -494,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B6871-2124-4F43-815A-D701F2F18784}">
-  <dimension ref="B2:P17"/>
+  <dimension ref="B1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,205 +834,308 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="14">
+        <f>E15</f>
+        <v>994.6</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E8" s="21">
+        <v>397.6</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="21">
+        <v>27</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21">
+        <v>47</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>4</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="21">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>5</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21">
+        <v>200</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>6</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="21">
+        <v>200</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="24">
+        <v>100</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24">
+        <f>SUM(E8:E14)</f>
+        <v>994.6</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
